--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_19.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>569985.3226976579</v>
+        <v>570769.4686356867</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443467</v>
+        <v>18621122.00443468</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5340549.92579109</v>
+        <v>5340549.925791091</v>
       </c>
     </row>
     <row r="11">
@@ -656,76 +658,76 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>169.0708280266249</v>
-      </c>
-      <c r="J2" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="W2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -738,10 +740,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>119.8469440170073</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -792,19 +794,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>47.29627918133471</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -896,67 +898,67 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0</v>
+      </c>
+      <c r="V5" t="n">
         <v>181.0201173812374</v>
       </c>
-      <c r="D5" t="n">
+      <c r="W5" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -975,13 +977,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -996,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>158.2881417686508</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1041,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>153.2418220378557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1130,11 +1132,11 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>31.1509994400877</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,10 +1180,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1193,13 +1195,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>119.8469440170073</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1269,16 +1271,16 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W9" t="n">
-        <v>9.336946277399601</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1309,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>44.30348359856712</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1370,22 +1372,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="H11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>181.0201173812374</v>
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>7.692106705274854</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>80.86228322859426</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -1503,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -1512,10 +1514,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="13">
@@ -1604,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1616,52 +1618,52 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>169.0708280266249</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R14" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S14" t="n">
+        <v>21.16030022554286</v>
+      </c>
+      <c r="T14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H14" t="n">
+      <c r="U14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="I14" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="J14" t="n">
-        <v>11.94928935461252</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,10 +1688,10 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>120.6741422680292</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -1701,13 +1703,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1749,7 +1751,7 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>155.1371722699136</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,43 +1785,43 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
+        <v>0</v>
+      </c>
+      <c r="U16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
-      </c>
-      <c r="U16" t="n">
-        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1856,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>3.265316057196634</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1926,7 +1928,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>87.95566939920795</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -1935,7 +1937,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>10.9492201923453</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
         <v>112.2354442364965</v>
@@ -1944,7 +1946,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1989,7 +1991,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2047,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
+        <v>0</v>
+      </c>
+      <c r="S19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S19" t="n">
-        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E20" t="n">
+        <v>52.42556848774763</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R20" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>0</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="W20" t="n">
-        <v>0</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,19 +2162,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>124.0808356869336</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2214,7 +2216,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>1.800737056637706</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2324,10 +2326,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2360,25 +2362,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="V23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="W23" t="n">
-        <v>21.18375537072436</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2418,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2445,22 +2447,22 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>35.40726547353833</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>148.5527042308418</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2473,58 +2475,58 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -2558,7 +2560,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -2606,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U26" t="n">
+        <v>230.2038249569697</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
       <c r="W26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,13 +2633,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
@@ -2646,10 +2648,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>1.944519418634081</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>98.22847700514936</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2688,10 +2690,10 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>241.0142888776591</v>
@@ -2700,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2764,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2773,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -2789,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>82.96396779500076</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2798,19 +2800,19 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -2843,10 +2845,10 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2855,7 +2857,7 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,19 +2870,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2889,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>19.15541836171557</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2916,13 +2918,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2931,10 +2933,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>3.941760892143184</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2950,10 +2952,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
+        <v>0</v>
+      </c>
+      <c r="D31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -3029,10 +3031,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>94.41048699370604</v>
       </c>
       <c r="D32" t="n">
-        <v>94.41048699370604</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3105,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3117,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>90.50278177497624</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3129,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3153,28 +3155,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>83.72646317855323</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3196,13 +3198,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3308,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>70.34400780127524</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>212.285385643442</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3342,16 +3344,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3366,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3399,19 +3401,19 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>190.0919981392954</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="37">
@@ -3445,7 +3447,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>39.82778746869524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3509,7 +3511,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3582,7 +3584,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>135.4320983106454</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
@@ -3591,13 +3593,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>56.26539607665198</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3639,10 +3641,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3676,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3740,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="D41" t="n">
         <v>205.5178444382804</v>
@@ -3752,16 +3754,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>159.0801288120801</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3816,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -3831,7 +3833,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>13.74034240511223</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3840,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="V42" t="n">
         <v>205.5178444382804</v>
@@ -3952,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>47.02492433367362</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,25 +3976,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4062,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>8.311618392921693</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4071,13 +4073,13 @@
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>41.3997004011064</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4104,19 +4106,19 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H2" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I2" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J2" t="n">
         <v>16.44142755506243</v>
@@ -4337,43 +4339,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M2" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N2" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O2" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S2" t="n">
-        <v>822.0713777531216</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="T2" t="n">
-        <v>822.0713777531216</v>
+        <v>396.792197863116</v>
       </c>
       <c r="U2" t="n">
-        <v>822.0713777531216</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="V2" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X2" t="n">
-        <v>614.4775954922324</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y2" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="3">
@@ -4383,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>190.8944568361894</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="C3" t="n">
-        <v>16.44142755506243</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4410,49 +4412,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L3" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>345.2616536067974</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N3" t="n">
-        <v>548.724319600695</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O3" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P3" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T3" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U3" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V3" t="n">
-        <v>774.2973583780361</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W3" t="n">
-        <v>774.2973583780361</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="X3" t="n">
-        <v>566.7035761171468</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y3" t="n">
-        <v>359.1097938562575</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I4" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J4" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K4" t="n">
         <v>16.44142755506243</v>
@@ -4504,34 +4506,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P4" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q4" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y4" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="5">
@@ -4541,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C5" t="n">
-        <v>224.0352098159517</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D5" t="n">
         <v>16.44142755506243</v>
@@ -4571,16 +4573,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>299.5322850506434</v>
+        <v>265.9510956226784</v>
       </c>
       <c r="M5" t="n">
-        <v>502.994951044541</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N5" t="n">
-        <v>706.4576170384386</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O5" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4601,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W5" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="X5" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y5" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>499.0663215028962</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="C6" t="n">
-        <v>324.6132922217692</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="D6" t="n">
-        <v>175.6788825605179</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="E6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="F6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="G6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="H6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="I6" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L6" t="n">
-        <v>345.2616536067974</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M6" t="n">
-        <v>345.2616536067974</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N6" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O6" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P6" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S6" t="n">
-        <v>822.0713777531216</v>
+        <v>547.4845037566762</v>
       </c>
       <c r="T6" t="n">
-        <v>822.0713777531216</v>
+        <v>345.2979091154422</v>
       </c>
       <c r="U6" t="n">
-        <v>822.0713777531216</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="V6" t="n">
-        <v>822.0713777531216</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="W6" t="n">
-        <v>822.0713777531216</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="X6" t="n">
-        <v>822.0713777531216</v>
+        <v>185.4108972279162</v>
       </c>
       <c r="Y6" t="n">
-        <v>667.2816585229643</v>
+        <v>185.4108972279162</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I7" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J7" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K7" t="n">
         <v>16.44142755506243</v>
@@ -4741,34 +4743,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q7" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y7" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.44142755506243</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="C8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="D8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="E8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="F8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="G8" t="n">
-        <v>16.44142755506243</v>
+        <v>47.90708355515102</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4811,13 +4813,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M8" t="n">
-        <v>379.753706324525</v>
+        <v>469.413761616576</v>
       </c>
       <c r="N8" t="n">
-        <v>583.2163723184226</v>
+        <v>672.8764276104736</v>
       </c>
       <c r="O8" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
@@ -4826,28 +4828,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R8" t="n">
-        <v>822.0713777531216</v>
+        <v>670.6884303378189</v>
       </c>
       <c r="S8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="T8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="U8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="V8" t="n">
-        <v>822.0713777531216</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="W8" t="n">
-        <v>639.2227743377304</v>
+        <v>463.0946480769296</v>
       </c>
       <c r="X8" t="n">
-        <v>431.628992076841</v>
+        <v>255.5008658160403</v>
       </c>
       <c r="Y8" t="n">
-        <v>224.0352098159517</v>
+        <v>255.5008658160403</v>
       </c>
     </row>
     <row r="9">
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>16.44142755506243</v>
+        <v>137.4989467641607</v>
       </c>
       <c r="C9" t="n">
         <v>16.44142755506243</v>
@@ -4887,13 +4889,13 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L9" t="n">
-        <v>232.5025681519757</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M9" t="n">
-        <v>435.9652341458732</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N9" t="n">
-        <v>435.9652341458732</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4905,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S9" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T9" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U9" t="n">
-        <v>648.6540332037905</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="V9" t="n">
-        <v>441.0602509429012</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="W9" t="n">
-        <v>431.628992076841</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X9" t="n">
-        <v>224.0352098159517</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y9" t="n">
-        <v>16.44142755506243</v>
+        <v>305.7142837842288</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I10" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J10" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K10" t="n">
         <v>16.44142755506243</v>
@@ -4978,34 +4980,34 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P10" t="n">
-        <v>150.9737180453332</v>
+        <v>148.224788009872</v>
       </c>
       <c r="Q10" t="n">
-        <v>150.9737180453332</v>
+        <v>61.19242108896862</v>
       </c>
       <c r="R10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="S10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="T10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="U10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y10" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="11">
@@ -5018,19 +5020,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="C11" t="n">
-        <v>822.0713777531216</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="D11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="E11" t="n">
-        <v>822.0713777531216</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="F11" t="n">
-        <v>614.4775954922324</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="G11" t="n">
-        <v>406.8838132313431</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="H11" t="n">
         <v>199.2900309704538</v>
@@ -5048,7 +5050,7 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M11" t="n">
-        <v>502.994951044541</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N11" t="n">
         <v>583.2163723184226</v>
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>822.0713777531216</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="C12" t="n">
-        <v>814.3015730003187</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="D12" t="n">
-        <v>665.3671633390675</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="E12" t="n">
-        <v>506.1297083336119</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="F12" t="n">
-        <v>359.5951503604969</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="G12" t="n">
-        <v>220.8643249431123</v>
+        <v>98.12050152333947</v>
       </c>
       <c r="H12" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I12" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J12" t="n">
         <v>16.44142755506243</v>
@@ -5124,46 +5126,46 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>211.6833797714288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="M12" t="n">
-        <v>415.1460457653264</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N12" t="n">
-        <v>618.608711759224</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O12" t="n">
-        <v>822.0713777531216</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P12" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="S12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="T12" t="n">
-        <v>822.0713777531216</v>
+        <v>720.9018483060073</v>
       </c>
       <c r="U12" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="V12" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="W12" t="n">
-        <v>822.0713777531216</v>
+        <v>513.308066045118</v>
       </c>
       <c r="X12" t="n">
-        <v>822.0713777531216</v>
+        <v>305.7142837842288</v>
       </c>
       <c r="Y12" t="n">
-        <v>822.0713777531216</v>
+        <v>98.12050152333947</v>
       </c>
     </row>
     <row r="13">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E14" t="n">
-        <v>822.0713777531216</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F14" t="n">
-        <v>651.2927635848137</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G14" t="n">
-        <v>443.6989813239244</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H14" t="n">
-        <v>236.1051990630351</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I14" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J14" t="n">
         <v>16.44142755506243</v>
@@ -5285,43 +5287,43 @@
         <v>196.517279139721</v>
       </c>
       <c r="M14" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O14" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q14" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>822.0713777531216</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S14" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="T14" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="U14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="V14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y14" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="15">
@@ -5331,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>822.0713777531216</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="C15" t="n">
-        <v>700.1783047551123</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="D15" t="n">
-        <v>551.2438950938611</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="E15" t="n">
-        <v>392.0064400884055</v>
+        <v>506.1297083336119</v>
       </c>
       <c r="F15" t="n">
-        <v>245.4718821152904</v>
+        <v>359.5951503604969</v>
       </c>
       <c r="G15" t="n">
-        <v>106.7410566979059</v>
+        <v>220.8643249431123</v>
       </c>
       <c r="H15" t="n">
-        <v>106.7410566979059</v>
+        <v>107.4951893506917</v>
       </c>
       <c r="I15" t="n">
-        <v>16.44142755506243</v>
+        <v>17.19556020784815</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5361,7 +5363,7 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>232.5025681519757</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M15" t="n">
         <v>232.5025681519757</v>
@@ -5397,10 +5399,10 @@
         <v>822.0713777531216</v>
       </c>
       <c r="X15" t="n">
-        <v>822.0713777531216</v>
+        <v>665.3671633390675</v>
       </c>
       <c r="Y15" t="n">
-        <v>822.0713777531216</v>
+        <v>665.3671633390675</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I16" t="n">
         <v>16.44142755506243</v>
@@ -5467,19 +5469,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y16" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="17">
@@ -5504,7 +5506,7 @@
         <v>262.7299197543128</v>
       </c>
       <c r="G17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
         <v>19.28114311021272</v>
@@ -5540,22 +5542,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>752.9257720901863</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U17" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V17" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W17" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X17" t="n">
-        <v>752.9257720901863</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y17" t="n">
         <v>749.627473042513</v>
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>689.4702815141908</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="C18" t="n">
-        <v>689.4702815141908</v>
+        <v>756.2968567456824</v>
       </c>
       <c r="D18" t="n">
-        <v>540.5358718529395</v>
+        <v>667.4527462414319</v>
       </c>
       <c r="E18" t="n">
-        <v>381.298416847484</v>
+        <v>508.2152912359765</v>
       </c>
       <c r="F18" t="n">
-        <v>234.763858874369</v>
+        <v>361.6807332628614</v>
       </c>
       <c r="G18" t="n">
-        <v>223.7040404982626</v>
+        <v>222.9499078454769</v>
       </c>
       <c r="H18" t="n">
-        <v>110.334904905842</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I18" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>304.2053859195205</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M18" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N18" t="n">
-        <v>781.4136778972854</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O18" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>689.4702815141908</v>
+        <v>756.2968567456824</v>
       </c>
     </row>
     <row r="19">
@@ -5695,7 +5697,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C20" t="n">
-        <v>749.627473042513</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D20" t="n">
-        <v>749.627473042513</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G20" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5771,31 +5773,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q20" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>317.2494235330527</v>
+        <v>319.0683498528888</v>
       </c>
       <c r="C21" t="n">
-        <v>317.2494235330527</v>
+        <v>144.6153205717618</v>
       </c>
       <c r="D21" t="n">
-        <v>317.2494235330527</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F21" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G21" t="n">
         <v>19.28114311021272</v>
@@ -5832,22 +5834,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N21" t="n">
-        <v>712.019119383956</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O21" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P21" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5862,19 +5864,19 @@
         <v>487.2836868729568</v>
       </c>
       <c r="U21" t="n">
-        <v>485.4647605531208</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V21" t="n">
-        <v>485.4647605531208</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W21" t="n">
-        <v>485.4647605531208</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X21" t="n">
-        <v>485.4647605531208</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y21" t="n">
-        <v>485.4647605531208</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="22">
@@ -5935,13 +5937,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
         <v>19.28114311021272</v>
@@ -5963,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S23" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>527.5764290961142</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U23" t="n">
-        <v>284.1276524520142</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V23" t="n">
-        <v>40.6788758079141</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="24">
@@ -6042,49 +6044,49 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I24" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6093,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>964.0571555106362</v>
+        <v>928.2922408909005</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>726.1056462496665</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>497.8820279860555</v>
       </c>
       <c r="V24" t="n">
-        <v>814.0039189138263</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W24" t="n">
-        <v>570.5551422697263</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X24" t="n">
-        <v>362.7036420641935</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>362.7036420641935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6172,25 +6174,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y25" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6202,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
         <v>19.28114311021272</v>
@@ -6254,22 +6256,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>738.7078125165641</v>
       </c>
       <c r="U26" t="n">
-        <v>720.6083788665362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V26" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W26" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X26" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y26" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158.0119685275972</v>
+        <v>344.6327430815143</v>
       </c>
       <c r="C27" t="n">
-        <v>158.0119685275972</v>
+        <v>170.1797138003873</v>
       </c>
       <c r="D27" t="n">
-        <v>158.0119685275972</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="E27" t="n">
-        <v>158.0119685275972</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="F27" t="n">
-        <v>158.0119685275972</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>21.24530413913604</v>
       </c>
       <c r="H27" t="n">
         <v>19.28114311021272</v>
@@ -6309,10 +6311,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N27" t="n">
         <v>473.4149733950735</v>
@@ -6327,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>864.836471667051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>864.836471667051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>864.836471667051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>636.61285340344</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V27" t="n">
-        <v>401.4607451716973</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W27" t="n">
-        <v>158.0119685275972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X27" t="n">
-        <v>158.0119685275972</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y27" t="n">
-        <v>158.0119685275972</v>
+        <v>512.8480801015824</v>
       </c>
     </row>
     <row r="28">
@@ -6412,13 +6414,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V28" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>231.8830517671884</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="C29" t="n">
-        <v>231.8830517671884</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="D29" t="n">
-        <v>231.8830517671884</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="E29" t="n">
-        <v>231.8830517671884</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="F29" t="n">
-        <v>231.8830517671884</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="G29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H29" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S29" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T29" t="n">
-        <v>802.5825927271064</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U29" t="n">
-        <v>559.1338160830064</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V29" t="n">
-        <v>559.1338160830064</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W29" t="n">
-        <v>559.1338160830064</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="X29" t="n">
-        <v>315.6850394389064</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="Y29" t="n">
-        <v>315.6850394389064</v>
+        <v>587.3248651012614</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>341.0228630172405</v>
+        <v>521.2549444941228</v>
       </c>
       <c r="C30" t="n">
-        <v>166.5698337361135</v>
+        <v>346.8019152129958</v>
       </c>
       <c r="D30" t="n">
-        <v>166.5698337361135</v>
+        <v>197.8675055517446</v>
       </c>
       <c r="E30" t="n">
-        <v>166.5698337361135</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="F30" t="n">
-        <v>20.03527576299844</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="G30" t="n">
-        <v>20.03527576299844</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="H30" t="n">
-        <v>20.03527576299844</v>
+        <v>38.63005054628906</v>
       </c>
       <c r="I30" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6549,13 +6551,13 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>487.8483949674443</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N30" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O30" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P30" t="n">
         <v>964.0571555106362</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S30" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U30" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V30" t="n">
-        <v>588.4532163200711</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W30" t="n">
-        <v>345.004439675971</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X30" t="n">
-        <v>341.0228630172405</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y30" t="n">
-        <v>341.0228630172405</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="31">
@@ -6598,7 +6600,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D31" t="n">
         <v>829.5248650203655</v>
@@ -6677,7 +6679,7 @@
         <v>114.6452713866835</v>
       </c>
       <c r="C32" t="n">
-        <v>114.6452713866835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D32" t="n">
         <v>19.28114311021272</v>
@@ -6753,40 +6755,40 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>257.2326523711826</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C33" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D33" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E33" t="n">
-        <v>257.2326523711826</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F33" t="n">
-        <v>110.6980943980675</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K33" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M33" t="n">
-        <v>374.6018090363993</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N33" t="n">
         <v>473.4149733950735</v>
@@ -6801,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S33" t="n">
-        <v>964.0571555106362</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="U33" t="n">
-        <v>735.8335372470253</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="V33" t="n">
-        <v>500.6814290152826</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="W33" t="n">
-        <v>257.2326523711826</v>
+        <v>778.3154410346802</v>
       </c>
       <c r="X33" t="n">
-        <v>257.2326523711826</v>
+        <v>570.4639408291474</v>
       </c>
       <c r="Y33" t="n">
-        <v>257.2326523711826</v>
+        <v>362.7036420641935</v>
       </c>
     </row>
     <row r="34">
@@ -6844,10 +6846,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G34" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H34" t="n">
         <v>829.5248650203655</v>
@@ -6956,16 +6958,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S35" t="n">
-        <v>731.528039392485</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T35" t="n">
-        <v>506.1786963984129</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U35" t="n">
         <v>506.1786963984129</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>502.6601697108322</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C36" t="n">
-        <v>328.2071404297052</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D36" t="n">
-        <v>179.2727307684539</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>65.60123993063803</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>851.8101010141643</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U36" t="n">
-        <v>862.8876260635219</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V36" t="n">
-        <v>862.8876260635219</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W36" t="n">
-        <v>862.8876260635219</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X36" t="n">
-        <v>862.8876260635219</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y36" t="n">
-        <v>670.8755067309003</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="37">
@@ -7069,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J37" t="n">
         <v>829.5248650203655</v>
@@ -7123,22 +7125,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
-        <v>923.8270671584188</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="38">
@@ -7148,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="C38" t="n">
-        <v>506.1786963984129</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>30.58726043968704</v>
       </c>
       <c r="E38" t="n">
         <v>19.28114311021272</v>
@@ -7199,25 +7201,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="W38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="X38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="Y38" t="n">
-        <v>749.627473042513</v>
+        <v>517.4848137278872</v>
       </c>
     </row>
     <row r="39">
@@ -7227,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="C39" t="n">
-        <v>384.2867411876791</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D39" t="n">
-        <v>235.3523315264278</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E39" t="n">
-        <v>76.1148765209723</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H39" t="n">
         <v>19.28114311021272</v>
@@ -7254,19 +7256,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P39" t="n">
         <v>964.0571555106362</v>
@@ -7287,16 +7289,16 @@
         <v>862.8876260635219</v>
       </c>
       <c r="V39" t="n">
-        <v>627.7355178317791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="W39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="X39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="Y39" t="n">
-        <v>384.2867411876791</v>
+        <v>862.8876260635219</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H40" t="n">
         <v>829.5248650203655</v>
@@ -7354,28 +7356,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C41" t="n">
-        <v>604.3859801240053</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D41" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E41" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F41" t="n">
-        <v>396.792197863116</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H41" t="n">
-        <v>189.1984156022267</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I41" t="n">
-        <v>28.51141680214578</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J41" t="n">
         <v>16.44142755506243</v>
@@ -7418,7 +7420,7 @@
         <v>196.517279139721</v>
       </c>
       <c r="M41" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N41" t="n">
         <v>583.2163723184226</v>
@@ -7445,16 +7447,16 @@
         <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
-        <v>811.9797623848946</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="W41" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="X41" t="n">
-        <v>811.9797623848946</v>
+        <v>396.792197863116</v>
       </c>
       <c r="Y41" t="n">
-        <v>604.3859801240053</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="42">
@@ -7464,43 +7466,43 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F42" t="n">
-        <v>31.07469395038575</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I42" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J42" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K42" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L42" t="n">
-        <v>163.1080096386462</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
+        <v>345.2616536067974</v>
+      </c>
+      <c r="N42" t="n">
         <v>366.5706756325438</v>
-      </c>
-      <c r="N42" t="n">
-        <v>570.0333416264414</v>
       </c>
       <c r="O42" t="n">
         <v>570.0333416264414</v>
@@ -7521,19 +7523,19 @@
         <v>822.0713777531216</v>
       </c>
       <c r="U42" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V42" t="n">
-        <v>614.4775954922324</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W42" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X42" t="n">
-        <v>406.8838132313431</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y42" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="43">
@@ -7600,7 +7602,7 @@
         <v>63.94135112442973</v>
       </c>
       <c r="U43" t="n">
-        <v>16.44142755506243</v>
+        <v>63.94135112442973</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7622,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>255.5008658160403</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="C44" t="n">
-        <v>255.5008658160403</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="D44" t="n">
-        <v>47.90708355515102</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="E44" t="n">
-        <v>47.90708355515102</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="F44" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G44" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H44" t="n">
         <v>16.44142755506243</v>
@@ -7655,43 +7657,43 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N44" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O44" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q44" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S44" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T44" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U44" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V44" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="W44" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="X44" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="Y44" t="n">
-        <v>255.5008658160403</v>
+        <v>245.4092504478133</v>
       </c>
     </row>
     <row r="45">
@@ -7701,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>233.4664686820119</v>
+        <v>199.2900309704538</v>
       </c>
       <c r="C45" t="n">
-        <v>59.01343940088492</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="D45" t="n">
-        <v>59.01343940088492</v>
+        <v>24.83700168932677</v>
       </c>
       <c r="E45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G45" t="n">
-        <v>59.01343940088492</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I45" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J45" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L45" t="n">
-        <v>219.90409354896</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="M45" t="n">
-        <v>423.3667595428576</v>
+        <v>163.1080096386462</v>
       </c>
       <c r="N45" t="n">
-        <v>626.8294255367553</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O45" t="n">
-        <v>822.0713777531216</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P45" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7752,25 +7754,25 @@
         <v>822.0713777531216</v>
       </c>
       <c r="S45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>648.6540332037905</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U45" t="n">
-        <v>441.0602509429012</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V45" t="n">
-        <v>441.0602509429012</v>
+        <v>614.4775954922324</v>
       </c>
       <c r="W45" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="X45" t="n">
-        <v>441.0602509429012</v>
+        <v>406.8838132313431</v>
       </c>
       <c r="Y45" t="n">
-        <v>233.4664686820119</v>
+        <v>199.2900309704538</v>
       </c>
     </row>
     <row r="46">
@@ -7837,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V46" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7985,16 +7987,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N2" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P2" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8060,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>347.6518783602987</v>
+        <v>290.282096632709</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O3" t="n">
-        <v>234.2160227667432</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8219,7 +8221,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>417.6612145504504</v>
+        <v>383.7408211888696</v>
       </c>
       <c r="M5" t="n">
         <v>435.8640776655532</v>
@@ -8228,10 +8230,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O5" t="n">
-        <v>256.3140754849514</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,16 +8297,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>152.8659767558044</v>
+        <v>144.0674440055713</v>
       </c>
       <c r="O6" t="n">
         <v>348.1140888827248</v>
@@ -8313,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8459,7 +8461,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>311.3779718877592</v>
+        <v>401.9436843039723</v>
       </c>
       <c r="N8" t="n">
         <v>434.9309080348713</v>
@@ -8468,7 +8470,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8535,16 +8537,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>230.174158102173</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>222.9614904056321</v>
       </c>
       <c r="O9" t="n">
-        <v>348.1140888827248</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8696,10 +8698,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N11" t="n">
-        <v>310.4448022570774</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O11" t="n">
         <v>380.8001812627454</v>
@@ -8772,7 +8774,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>335.768472927719</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
         <v>347.6518783602987</v>
@@ -8784,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>261.0929869123474</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8933,7 +8935,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
         <v>434.9309080348713</v>
@@ -8942,7 +8944,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,10 +9011,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>230.174158102173</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N15" t="n">
         <v>336.8595565216137</v>
@@ -9243,10 +9245,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>299.7328472056018</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9255,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9717,16 +9719,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>349.0484638974528</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9957,13 +9959,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N27" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -10197,16 +10199,16 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N30" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,16 +10430,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N33" t="n">
-        <v>231.1529892133073</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10665,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>185.3423563661624</v>
       </c>
       <c r="M36" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O36" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
@@ -11066,10 +11068,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>415.4335334139435</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11139,19 +11141,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>286.7024424905649</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>336.8595565216137</v>
+        <v>152.8659767558044</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P42" t="n">
         <v>318.4627686399372</v>
@@ -11303,7 +11305,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>401.9436843039723</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
@@ -11312,7 +11314,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>344.0722242181546</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>347.6518783602987</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>339.8103375922893</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22565,10 +22567,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>41.40506154378102</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -22589,31 +22591,31 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>156.7228403034423</v>
       </c>
       <c r="W2" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22626,10 +22628,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>27.59812154763144</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22671,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22680,19 +22682,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>185.5043079680906</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22784,10 +22786,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>184.2527743897701</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -22841,10 +22843,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>146.7321410888975</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22863,13 +22865,13 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -22884,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22908,16 +22910,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>67.65324031232404</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -22929,7 +22931,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>52.44087373944865</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22981,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23018,10 +23020,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23036,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>308.3238026756795</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23066,10 +23068,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>3.502225147964936</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -23081,13 +23083,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>168.2208513361757</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>164.2132562401886</v>
       </c>
       <c r="Y8" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>52.86155497130842</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23145,10 +23147,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -23157,16 +23159,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>242.35803688352</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.1648513390239543</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -23197,13 +23199,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23218,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786024</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23258,22 +23260,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>159.7550473327271</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>201.358201303431</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>209.7848930768546</v>
       </c>
       <c r="H11" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
         <v>29.45577218916847</v>
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>165.0163922830409</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>31.3731610079022</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
@@ -23391,7 +23393,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -23400,10 +23402,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="13">
@@ -23492,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23504,19 +23506,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>237.8052177150866</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H14" t="n">
-        <v>133.9569576774867</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I14" t="n">
-        <v>4.958045132125505</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,19 +23539,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>209.0200695862453</v>
+        <v>187.8597693607025</v>
       </c>
       <c r="T14" t="n">
-        <v>223.0958495641314</v>
+        <v>17.57800512585095</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23574,10 +23576,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>52.03435672028654</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -23589,13 +23591,13 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23637,7 +23639,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>50.63581293356387</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,7 +23673,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>22.26350734189029</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
         <v>93.35918011667277</v>
@@ -23707,7 +23709,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23744,10 +23746,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H17" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
@@ -23780,10 +23782,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U17" t="n">
         <v>251.3456529078365</v>
@@ -23798,7 +23800,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>382.972622598857</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23814,7 +23816,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>59.4893961654308</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -23823,7 +23825,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>126.3942969708653</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23832,7 +23834,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,10 +23858,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
         <v>200.1647286948216</v>
@@ -23877,7 +23879,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23935,10 +23937,10 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R19" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>329.5048015845142</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24011,10 +24013,10 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>209.0200695862453</v>
@@ -24026,7 +24028,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V20" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24035,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24048,19 +24050,19 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>147.4450655646388</v>
+        <v>23.3642298777052</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
         <v>112.2354442364965</v>
@@ -24102,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>224.1406450243371</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -24175,7 +24177,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T22" t="n">
         <v>227.9455894282815</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24212,10 +24214,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G23" t="n">
         <v>415.302737515135</v>
@@ -24248,25 +24250,25 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>10.33136403017744</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V23" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>328.0572133466886</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
@@ -24306,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24333,22 +24335,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>136.2759056302995</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>84.24788291858343</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
         <v>205.6826957773044</v>
@@ -24361,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>46.64501259656927</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -24412,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24446,7 +24448,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>10.33136403017744</v>
+        <v>21.14182795086677</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.9525530126115</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24519,13 +24521,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
         <v>157.6450804554009</v>
@@ -24534,10 +24536,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>112.2354442364965</v>
+        <v>110.2909248178624</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>1.929357147493775</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
@@ -24576,10 +24578,10 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>10.68069428326055</v>
@@ -24588,7 +24590,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24652,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24661,7 +24663,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -24677,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>299.7698738684798</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24686,19 +24688,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>334.968030499315</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -24731,10 +24733,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24743,7 +24745,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -24756,19 +24758,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>137.3435171632106</v>
@@ -24777,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>89.39663285141508</v>
+        <v>70.24121448969952</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24804,13 +24806,13 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24819,10 +24821,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>201.8312243113343</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24838,10 +24840,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>34.05985351325984</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>15.42850543284436</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24917,10 +24919,10 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>270.8624047773015</v>
       </c>
       <c r="D32" t="n">
-        <v>260.2725546269769</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24993,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25005,10 +25007,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>46.84073538823439</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25017,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25041,28 +25043,28 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>171.6831711038378</v>
+        <v>87.95670792528459</v>
       </c>
       <c r="T33" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25084,13 +25086,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756325</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
       </c>
       <c r="H34" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
         <v>155.4504749272583</v>
@@ -25196,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>138.6760617849701</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>10.81046392068936</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25230,16 +25232,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25254,7 +25256,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,7 +25280,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>171.6831711038378</v>
@@ -25287,19 +25289,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>15.59069763800895</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="37">
@@ -25333,7 +25335,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K37" t="n">
         <v>22.26949182588285</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>178.7568658833995</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25397,7 +25399,7 @@
         <v>113.6687527430239</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>370.7373139160822</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25439,13 +25441,13 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -25470,7 +25472,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>37.27640067767032</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -25479,13 +25481,13 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>88.8038163167319</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
@@ -25527,10 +25529,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
         <v>205.7729852034775</v>
@@ -25564,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>162.2271725074396</v>
+        <v>29.04020492207158</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25594,7 +25596,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R40" t="n">
-        <v>44.10642379180149</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
         <v>224.0165980369723</v>
@@ -25628,7 +25630,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>194.2434736043149</v>
       </c>
       <c r="D41" t="n">
         <v>149.1651971824026</v>
@@ -25640,16 +25642,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I41" t="n">
-        <v>51.39576075832579</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25685,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>122.2344140318545</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -25704,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -25719,7 +25721,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
-        <v>123.6031747580984</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
         <v>112.2354442364965</v>
@@ -25728,7 +25730,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25761,7 +25763,7 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9413820809748</v>
+        <v>44.92126469973746</v>
       </c>
       <c r="V42" t="n">
         <v>27.28274271114486</v>
@@ -25840,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>239.2941050228173</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>205.1127189901544</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,25 +25864,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>385.7157455161685</v>
       </c>
       <c r="G44" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H44" t="n">
-        <v>308.3238026756795</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25950,7 +25952,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>149.3334620624792</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25959,13 +25961,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>70.83574383539006</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -25992,19 +25994,19 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26077,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>449915.3642318326</v>
+        <v>449915.3642318327</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449915.3642318326</v>
+        <v>449915.3642318327</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>473915.1863847286</v>
+        <v>473915.1863847285</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473915.1863847285</v>
+        <v>473915.1863847286</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473915.1863847284</v>
+        <v>473915.1863847285</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473915.1863847285</v>
+        <v>473915.1863847286</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473915.1863847285</v>
+        <v>473915.1863847286</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>473915.1863847286</v>
+        <v>473915.1863847285</v>
       </c>
     </row>
     <row r="14">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449915.3642318327</v>
+        <v>449915.3642318326</v>
       </c>
     </row>
   </sheetData>
@@ -26326,25 +26328,25 @@
         <v>149869.759743185</v>
       </c>
       <c r="G2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="H2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="I2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="J2" t="n">
-        <v>157852.6389047657</v>
+        <v>157852.6389047658</v>
       </c>
       <c r="K2" t="n">
         <v>157852.6389047657</v>
       </c>
       <c r="L2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="M2" t="n">
         <v>157852.6389047657</v>
-      </c>
-      <c r="M2" t="n">
-        <v>157852.6389047658</v>
       </c>
       <c r="N2" t="n">
         <v>157852.6389047657</v>
@@ -26421,10 +26423,10 @@
         <v>47787.18911168983</v>
       </c>
       <c r="D4" t="n">
+        <v>47787.18911168983</v>
+      </c>
+      <c r="E4" t="n">
         <v>47787.18911168982</v>
-      </c>
-      <c r="E4" t="n">
-        <v>47787.18911168983</v>
       </c>
       <c r="F4" t="n">
         <v>47787.18911168983</v>
@@ -26433,10 +26435,10 @@
         <v>50385.00392753457</v>
       </c>
       <c r="H4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="I4" t="n">
         <v>50385.00392753457</v>
-      </c>
-      <c r="I4" t="n">
-        <v>50385.00392753458</v>
       </c>
       <c r="J4" t="n">
         <v>50385.00392753457</v>
@@ -26445,13 +26447,13 @@
         <v>50385.00392753458</v>
       </c>
       <c r="L4" t="n">
-        <v>50385.00392753456</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="M4" t="n">
         <v>50385.00392753458</v>
       </c>
       <c r="N4" t="n">
-        <v>50385.00392753457</v>
+        <v>50385.00392753458</v>
       </c>
       <c r="O4" t="n">
         <v>47787.18911168983</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12914.27089204208</v>
+        <v>-12914.27089204214</v>
       </c>
       <c r="C6" t="n">
-        <v>55959.48568964774</v>
+        <v>55959.48568964776</v>
       </c>
       <c r="D6" t="n">
-        <v>55959.48568964773</v>
+        <v>55959.48568964771</v>
       </c>
       <c r="E6" t="n">
-        <v>89587.08568964773</v>
+        <v>89587.08568964772</v>
       </c>
       <c r="F6" t="n">
-        <v>89587.08568964776</v>
+        <v>89587.08568964771</v>
       </c>
       <c r="G6" t="n">
-        <v>83084.92323930238</v>
+        <v>83084.92323930244</v>
       </c>
       <c r="H6" t="n">
-        <v>92813.96621346951</v>
+        <v>92813.96621346952</v>
       </c>
       <c r="I6" t="n">
+        <v>92813.96621346957</v>
+      </c>
+      <c r="J6" t="n">
+        <v>39041.4553232601</v>
+      </c>
+      <c r="K6" t="n">
         <v>92813.9662134695</v>
       </c>
-      <c r="J6" t="n">
-        <v>39041.45532326007</v>
-      </c>
-      <c r="K6" t="n">
-        <v>92813.96621346947</v>
-      </c>
       <c r="L6" t="n">
-        <v>92813.96621346951</v>
+        <v>92813.96621346954</v>
       </c>
       <c r="M6" t="n">
-        <v>92813.96621346952</v>
+        <v>92813.9662134695</v>
       </c>
       <c r="N6" t="n">
-        <v>92813.96621346951</v>
+        <v>92813.9662134695</v>
       </c>
       <c r="O6" t="n">
         <v>89587.08568964773</v>
       </c>
       <c r="P6" t="n">
-        <v>89587.08568964771</v>
+        <v>89587.08568964768</v>
       </c>
     </row>
   </sheetData>
@@ -34705,16 +34707,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N2" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P2" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>205.5178444382804</v>
+        <v>148.1480627106907</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O3" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,7 +34941,7 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>181.8947995804632</v>
+        <v>147.9744062188824</v>
       </c>
       <c r="M5" t="n">
         <v>205.5178444382804</v>
@@ -34948,10 +34950,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O5" t="n">
-        <v>26.21586406326473</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,16 +35017,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>21.52426467247106</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="O6" t="n">
         <v>205.5178444382804</v>
@@ -35033,7 +35035,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35179,7 +35181,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>81.03173866048648</v>
+        <v>171.5974510766996</v>
       </c>
       <c r="N8" t="n">
         <v>205.5178444382804</v>
@@ -35188,7 +35190,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,16 +35257,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="O9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,10 +35418,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
+        <v>81.03173866048648</v>
+      </c>
+      <c r="N11" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N11" t="n">
-        <v>81.03173866048648</v>
       </c>
       <c r="O11" t="n">
         <v>150.7019698410586</v>
@@ -35492,7 +35494,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>197.2140931478448</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>205.5178444382804</v>
@@ -35504,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>127.1185794980172</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
         <v>205.5178444382804</v>
@@ -35662,7 +35664,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35729,10 +35731,10 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
         <v>91.61977832229879</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>205.5178444382804</v>
@@ -35963,10 +35965,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35975,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P18" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36677,13 +36679,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N27" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36917,16 +36919,16 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>240.0046611659691</v>
+      </c>
+      <c r="N30" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N30" t="n">
-        <v>55.51629994036225</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,16 +37150,16 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N33" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37385,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="M36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,22 +37624,22 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37786,10 +37788,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M41" t="n">
+        <v>205.5178444382804</v>
+      </c>
+      <c r="N41" t="n">
         <v>185.0873001866707</v>
-      </c>
-      <c r="N41" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
         <v>150.7019698410586</v>
@@ -37859,19 +37861,19 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
+        <v>21.52426467247106</v>
+      </c>
+      <c r="O42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="N42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>184.4883612256069</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>171.5974510766996</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
@@ -38032,7 +38034,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>205.5178444382804</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>197.2140931478448</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_6_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>570769.4686356867</v>
+        <v>466536.9703722433</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1225477.018443406</v>
+        <v>1225477.018443407</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18621122.00443468</v>
+        <v>18621122.00443469</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5340549.925791091</v>
+        <v>5340549.92579109</v>
       </c>
     </row>
     <row r="11">
@@ -706,7 +706,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>205.5178444382804</v>
@@ -718,7 +718,7 @@
         <v>205.5178444382804</v>
       </c>
       <c r="V2" t="n">
-        <v>171.0294181666926</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>119.8469440170073</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>181.0201173812374</v>
       </c>
       <c r="U3" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W3" t="n">
         <v>205.5178444382804</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -955,10 +955,10 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="n">
         <v>181.0201173812374</v>
-      </c>
-      <c r="W5" t="n">
-        <v>205.5178444382804</v>
       </c>
       <c r="X5" t="n">
         <v>205.5178444382804</v>
@@ -974,10 +974,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>9.336946277399601</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -998,7 +998,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>158.2881417686508</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
     </row>
     <row r="7">
@@ -1095,13 +1095,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>31.1509994400877</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1177,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>21.16030022554292</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>119.8469440170073</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -1259,22 +1259,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>186.3732331246961</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="W9" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="X9" t="n">
         <v>205.5178444382804</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>44.30348359856712</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1372,7 +1372,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>205.5178444382804</v>
@@ -1384,55 +1384,55 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="n">
+        <v>171.0294181666926</v>
+      </c>
+      <c r="U11" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>181.0201173812374</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1463,10 +1463,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="H12" t="n">
-        <v>80.86228322859426</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1496,25 +1496,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
+        <v>0</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="V12" t="n">
-        <v>0</v>
-      </c>
-      <c r="W12" t="n">
-        <v>0</v>
-      </c>
       <c r="X12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
         <v>205.5178444382804</v>
@@ -1548,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>17.55829564281238</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1606,14 +1606,14 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
@@ -1621,7 +1621,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,28 +1654,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>21.16030022554286</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
+        <v>0</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="n">
+        <v>0</v>
+      </c>
+      <c r="X14" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="U14" t="n">
+      <c r="Y14" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="V14" t="n">
-        <v>0</v>
-      </c>
-      <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1688,28 +1688,28 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>13.66473413638039</v>
       </c>
       <c r="I15" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1739,19 +1739,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="X15" t="n">
-        <v>155.1371722699136</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1821,10 +1821,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
+        <v>0</v>
+      </c>
+      <c r="V16" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V16" t="n">
-        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>241.0142888776591</v>
+        <v>70.34400780127524</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1888,19 +1888,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1922,19 +1922,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>6.251719072323484</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>87.95566939920795</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>137.3435171632106</v>
@@ -1943,7 +1943,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1982,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0</v>
+      </c>
+      <c r="U19" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T19" t="n">
-        <v>0</v>
-      </c>
-      <c r="U19" t="n">
-        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E20" t="n">
-        <v>52.42556848774763</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,19 +2128,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>11.19305615617957</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2159,19 +2159,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>124.0808356869336</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2207,22 +2207,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>168.9990982913122</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2298,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="W22" t="n">
-        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2326,13 +2326,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>220.2131257424249</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2371,10 +2371,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U23" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2402,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>20.70897491108168</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2420,7 +2420,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2447,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>35.40726547353833</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2526,16 +2526,16 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2560,16 +2560,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2578,7 +2578,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2602,28 +2602,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>50.46697834767995</v>
       </c>
       <c r="U26" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,28 +2636,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>17.56655603940572</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>1.944519418634081</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -2696,13 +2696,13 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
         <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2724,7 +2724,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -2791,23 +2791,23 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F29" t="n">
-        <v>0</v>
-      </c>
-      <c r="G29" t="n">
-        <v>80.33470701582003</v>
-      </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
@@ -2836,19 +2836,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="30">
@@ -2870,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2891,10 +2891,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>19.15541836171557</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2918,10 +2918,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
         <v>0</v>
@@ -2930,16 +2930,16 @@
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>82.28530073128384</v>
       </c>
     </row>
     <row r="31">
@@ -2955,58 +2955,58 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
+        <v>0</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>112.3289263072337</v>
+      </c>
+      <c r="G32" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C32" t="n">
-        <v>94.41048699370604</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,10 +3107,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
@@ -3131,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3155,25 +3155,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>83.72646317855323</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>116.7833678227963</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -3198,55 +3198,55 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3268,20 +3268,20 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>102.3382270926889</v>
+      </c>
+      <c r="G35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
@@ -3310,19 +3310,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>212.285385643442</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>101.6746689730964</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3398,22 +3398,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3477,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
+        <v>0</v>
+      </c>
+      <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U37" t="n">
-        <v>0</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D38" t="n">
+      <c r="F38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E38" t="n">
-        <v>11.19305615617957</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3547,16 +3547,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3571,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="39">
@@ -3581,16 +3581,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>135.4320983106454</v>
+        <v>166.5075110752229</v>
       </c>
       <c r="D39" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
         <v>145.0692123933839</v>
@@ -3599,13 +3599,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3678,43 +3678,43 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3742,19 +3742,19 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
         <v>171.0294181666926</v>
       </c>
-      <c r="D41" t="n">
+      <c r="F41" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3799,16 +3799,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>0</v>
+      </c>
+      <c r="X41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y41" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W41" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3821,10 +3821,10 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
@@ -3872,19 +3872,19 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>66.38439726656337</v>
       </c>
       <c r="U42" t="n">
-        <v>181.0201173812374</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" t="n">
         <v>205.5178444382804</v>
-      </c>
-      <c r="W42" t="n">
-        <v>205.5178444382804</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>205.5178444382804</v>
@@ -3942,7 +3942,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>47.02492433367362</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
         <v>205.5178444382804</v>
       </c>
-      <c r="C44" t="n">
-        <v>0</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
       <c r="F44" t="n">
-        <v>21.16030022554292</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4024,16 +4024,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>171.0294181666926</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,13 +4058,13 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>8.311618392921693</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -4109,22 +4109,22 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="Y45" t="n">
-        <v>205.5178444382804</v>
+        <v>186.3732331246961</v>
       </c>
     </row>
     <row r="46">
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
+        <v>0</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V46" t="n">
-        <v>0</v>
-      </c>
-      <c r="W46" t="n">
-        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4333,19 +4333,19 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K2" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L2" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M2" t="n">
-        <v>502.994951044541</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N2" t="n">
-        <v>706.4576170384386</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O2" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P2" t="n">
         <v>822.0713777531216</v>
@@ -4354,16 +4354,16 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R2" t="n">
-        <v>811.9797623848946</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S2" t="n">
-        <v>604.3859801240053</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T2" t="n">
-        <v>396.792197863116</v>
+        <v>245.4092504478133</v>
       </c>
       <c r="U2" t="n">
-        <v>189.1984156022267</v>
+        <v>37.81546818692397</v>
       </c>
       <c r="V2" t="n">
         <v>16.44142755506243</v>
@@ -4385,10 +4385,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C3" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D3" t="n">
         <v>16.44142755506243</v>
@@ -4418,43 +4418,43 @@
         <v>16.44142755506243</v>
       </c>
       <c r="M3" t="n">
-        <v>163.1080096386462</v>
+        <v>219.90409354896</v>
       </c>
       <c r="N3" t="n">
-        <v>366.5706756325438</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="O3" t="n">
-        <v>570.0333416264414</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="P3" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q3" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S3" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T3" t="n">
-        <v>720.9018483060073</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U3" t="n">
-        <v>513.308066045118</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V3" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W3" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X3" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y3" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L4" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M4" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N4" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O4" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P4" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q4" t="n">
-        <v>61.19242108896862</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T4" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="V4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="W4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y4" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="5">
@@ -4573,16 +4573,16 @@
         <v>119.4564334659848</v>
       </c>
       <c r="L5" t="n">
-        <v>265.9510956226784</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M5" t="n">
-        <v>469.413761616576</v>
+        <v>379.753706324525</v>
       </c>
       <c r="N5" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O5" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P5" t="n">
         <v>822.0713777531216</v>
@@ -4603,16 +4603,16 @@
         <v>822.0713777531216</v>
       </c>
       <c r="V5" t="n">
+        <v>822.0713777531216</v>
+      </c>
+      <c r="W5" t="n">
         <v>639.2227743377304</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>431.628992076841</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17.19556020784815</v>
+        <v>25.87268642112264</v>
       </c>
       <c r="C6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I6" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J6" t="n">
         <v>16.44142755506243</v>
       </c>
       <c r="K6" t="n">
-        <v>16.44142755506243</v>
+        <v>141.7989876128999</v>
       </c>
       <c r="L6" t="n">
-        <v>219.90409354896</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M6" t="n">
-        <v>423.3667595428576</v>
+        <v>548.724319600695</v>
       </c>
       <c r="N6" t="n">
-        <v>435.9652341458732</v>
+        <v>752.1869855945927</v>
       </c>
       <c r="O6" t="n">
-        <v>639.4279001397708</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="P6" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q6" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R6" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S6" t="n">
-        <v>547.4845037566762</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="T6" t="n">
-        <v>345.2979091154422</v>
+        <v>648.6540332037905</v>
       </c>
       <c r="U6" t="n">
-        <v>185.4108972279162</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="V6" t="n">
-        <v>185.4108972279162</v>
+        <v>441.0602509429012</v>
       </c>
       <c r="W6" t="n">
-        <v>185.4108972279162</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="X6" t="n">
-        <v>185.4108972279162</v>
+        <v>233.4664686820119</v>
       </c>
       <c r="Y6" t="n">
-        <v>185.4108972279162</v>
+        <v>25.87268642112264</v>
       </c>
     </row>
     <row r="7">
@@ -4743,28 +4743,28 @@
         <v>150.9737180453332</v>
       </c>
       <c r="P7" t="n">
-        <v>148.224788009872</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="Q7" t="n">
-        <v>61.19242108896862</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W7" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="X7" t="n">
         <v>16.44142755506243</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C8" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D8" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E8" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F8" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G8" t="n">
-        <v>47.90708355515102</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H8" t="n">
         <v>16.44142755506243</v>
@@ -4807,49 +4807,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K8" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L8" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M8" t="n">
-        <v>469.413761616576</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N8" t="n">
-        <v>672.8764276104736</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O8" t="n">
-        <v>822.0713777531216</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P8" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q8" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R8" t="n">
-        <v>670.6884303378189</v>
+        <v>660.5968149695918</v>
       </c>
       <c r="S8" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="T8" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="U8" t="n">
-        <v>463.0946480769296</v>
+        <v>453.0030327087026</v>
       </c>
       <c r="V8" t="n">
-        <v>463.0946480769296</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W8" t="n">
-        <v>463.0946480769296</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X8" t="n">
-        <v>255.5008658160403</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y8" t="n">
-        <v>255.5008658160403</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="9">
@@ -4859,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>137.4989467641607</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C9" t="n">
         <v>16.44142755506243</v>
@@ -4886,16 +4886,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K9" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L9" t="n">
-        <v>345.2616536067974</v>
+        <v>29.03990215807806</v>
       </c>
       <c r="M9" t="n">
-        <v>548.724319600695</v>
+        <v>232.5025681519757</v>
       </c>
       <c r="N9" t="n">
-        <v>639.4279001397708</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O9" t="n">
         <v>639.4279001397708</v>
@@ -4907,28 +4907,28 @@
         <v>822.0713777531216</v>
       </c>
       <c r="R9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S9" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T9" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U9" t="n">
-        <v>720.9018483060073</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V9" t="n">
-        <v>720.9018483060073</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="W9" t="n">
-        <v>513.308066045118</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X9" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y9" t="n">
-        <v>305.7142837842288</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="C10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="D10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="E10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="F10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="G10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="H10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="I10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="J10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="K10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="L10" t="n">
-        <v>43.75555256277541</v>
+        <v>714.8532122705639</v>
       </c>
       <c r="M10" t="n">
-        <v>82.94359075499759</v>
+        <v>754.041250462786</v>
       </c>
       <c r="N10" t="n">
-        <v>126.6344414104339</v>
+        <v>797.7321011182223</v>
       </c>
       <c r="O10" t="n">
-        <v>150.9737180453332</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P10" t="n">
-        <v>148.224788009872</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q10" t="n">
-        <v>61.19242108896862</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="R10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="U10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="V10" t="n">
-        <v>16.44142755506243</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="W10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="X10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
       <c r="Y10" t="n">
-        <v>16.44142755506243</v>
+        <v>687.5390872628509</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="C11" t="n">
-        <v>614.4775954922324</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="D11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8838132313431</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H11" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I11" t="n">
         <v>16.44142755506243</v>
@@ -5044,49 +5044,49 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K11" t="n">
-        <v>119.4564334659848</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L11" t="n">
-        <v>299.5322850506434</v>
+        <v>196.517279139721</v>
       </c>
       <c r="M11" t="n">
-        <v>379.753706324525</v>
+        <v>399.9799451336186</v>
       </c>
       <c r="N11" t="n">
-        <v>583.2163723184226</v>
+        <v>603.4426111275161</v>
       </c>
       <c r="O11" t="n">
-        <v>732.4113224610707</v>
+        <v>752.6375612701642</v>
       </c>
       <c r="P11" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="Q11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="R11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S11" t="n">
-        <v>822.0713777531216</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T11" t="n">
-        <v>822.0713777531216</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="U11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="V11" t="n">
-        <v>822.0713777531216</v>
+        <v>431.628992076841</v>
       </c>
       <c r="W11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="X11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="Y11" t="n">
-        <v>822.0713777531216</v>
+        <v>224.0352098159517</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>98.12050152333947</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C12" t="n">
-        <v>98.12050152333947</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="D12" t="n">
-        <v>98.12050152333947</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="E12" t="n">
-        <v>98.12050152333947</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="F12" t="n">
-        <v>98.12050152333947</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="G12" t="n">
-        <v>98.12050152333947</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H12" t="n">
         <v>16.44142755506243</v>
@@ -5126,7 +5126,7 @@
         <v>16.44142755506243</v>
       </c>
       <c r="L12" t="n">
-        <v>16.44142755506243</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M12" t="n">
         <v>219.90409354896</v>
@@ -5138,34 +5138,34 @@
         <v>626.8294255367553</v>
       </c>
       <c r="P12" t="n">
-        <v>752.6768192397923</v>
+        <v>809.472903150106</v>
       </c>
       <c r="Q12" t="n">
         <v>822.0713777531216</v>
       </c>
       <c r="R12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="S12" t="n">
-        <v>720.9018483060073</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="T12" t="n">
-        <v>720.9018483060073</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U12" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V12" t="n">
-        <v>513.308066045118</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W12" t="n">
-        <v>513.308066045118</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X12" t="n">
-        <v>305.7142837842288</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="Y12" t="n">
-        <v>98.12050152333947</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="13">
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="F13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="G13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="H13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I13" t="n">
-        <v>133.2380658808762</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J13" t="n">
-        <v>38.93586374282289</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="K13" t="n">
         <v>16.44142755506243</v>
@@ -5232,19 +5232,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="W13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="X13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="Y13" t="n">
-        <v>150.9737180453332</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="C14" t="n">
-        <v>16.44142755506243</v>
+        <v>396.792197863116</v>
       </c>
       <c r="D14" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="E14" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="F14" t="n">
-        <v>16.44142755506243</v>
+        <v>189.1984156022267</v>
       </c>
       <c r="G14" t="n">
         <v>16.44142755506243</v>
@@ -5290,10 +5290,10 @@
         <v>399.9799451336186</v>
       </c>
       <c r="N14" t="n">
-        <v>603.4426111275161</v>
+        <v>583.2163723184226</v>
       </c>
       <c r="O14" t="n">
-        <v>752.6375612701642</v>
+        <v>732.4113224610707</v>
       </c>
       <c r="P14" t="n">
         <v>822.0713777531216</v>
@@ -5302,28 +5302,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R14" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S14" t="n">
-        <v>639.2227743377304</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T14" t="n">
-        <v>431.628992076841</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U14" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="V14" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="W14" t="n">
-        <v>224.0352098159517</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="X14" t="n">
-        <v>224.0352098159517</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="Y14" t="n">
-        <v>224.0352098159517</v>
+        <v>396.792197863116</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>665.3671633390675</v>
+        <v>204.697218590109</v>
       </c>
       <c r="C15" t="n">
-        <v>665.3671633390675</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="D15" t="n">
-        <v>665.3671633390675</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="E15" t="n">
-        <v>506.1297083336119</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="F15" t="n">
-        <v>359.5951503604969</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="G15" t="n">
-        <v>220.8643249431123</v>
+        <v>30.24418930898202</v>
       </c>
       <c r="H15" t="n">
-        <v>107.4951893506917</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="I15" t="n">
-        <v>17.19556020784815</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="J15" t="n">
         <v>16.44142755506243</v>
@@ -5363,19 +5363,19 @@
         <v>141.7989876128999</v>
       </c>
       <c r="L15" t="n">
-        <v>141.7989876128999</v>
+        <v>345.2616536067974</v>
       </c>
       <c r="M15" t="n">
-        <v>232.5025681519757</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="N15" t="n">
-        <v>435.9652341458732</v>
+        <v>366.5706756325438</v>
       </c>
       <c r="O15" t="n">
-        <v>639.4279001397708</v>
+        <v>570.0333416264414</v>
       </c>
       <c r="P15" t="n">
-        <v>822.0713777531216</v>
+        <v>752.6768192397923</v>
       </c>
       <c r="Q15" t="n">
         <v>822.0713777531216</v>
@@ -5387,22 +5387,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T15" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U15" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="V15" t="n">
-        <v>822.0713777531216</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="W15" t="n">
-        <v>822.0713777531216</v>
+        <v>204.697218590109</v>
       </c>
       <c r="X15" t="n">
-        <v>665.3671633390675</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y15" t="n">
-        <v>665.3671633390675</v>
+        <v>204.697218590109</v>
       </c>
     </row>
     <row r="16">
@@ -5469,7 +5469,7 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U16" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V16" t="n">
         <v>16.44142755506243</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>506.1786963984129</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C17" t="n">
         <v>262.7299197543128</v>
@@ -5536,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T17" t="n">
-        <v>749.627473042513</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U17" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V17" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="W17" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X17" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y17" t="n">
-        <v>749.627473042513</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="18">
@@ -5570,25 +5570,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>756.2968567456824</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="C18" t="n">
-        <v>756.2968567456824</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="D18" t="n">
-        <v>667.4527462414319</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="E18" t="n">
-        <v>508.2152912359765</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="F18" t="n">
-        <v>361.6807332628614</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G18" t="n">
-        <v>222.9499078454769</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H18" t="n">
-        <v>109.5807722530562</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
         <v>19.28114311021272</v>
@@ -5600,19 +5600,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>257.8852890990952</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N18" t="n">
-        <v>496.4894350879777</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P18" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q18" t="n">
         <v>964.0571555106362</v>
@@ -5630,16 +5630,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>964.0571555106362</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W18" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X18" t="n">
-        <v>964.0571555106362</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y18" t="n">
-        <v>756.2968567456824</v>
+        <v>277.6959718698396</v>
       </c>
     </row>
     <row r="19">
@@ -5700,10 +5700,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
         <v>19.28114311021272</v>
@@ -5728,19 +5728,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C20" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D20" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5776,28 +5776,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R20" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S20" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T20" t="n">
-        <v>802.5825927271064</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U20" t="n">
-        <v>802.5825927271064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="W20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X20" t="n">
-        <v>802.5825927271064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y20" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="21">
@@ -5807,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>319.0683498528888</v>
+        <v>314.750110744579</v>
       </c>
       <c r="C21" t="n">
-        <v>144.6153205717618</v>
+        <v>314.750110744579</v>
       </c>
       <c r="D21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="E21" t="n">
-        <v>19.28114311021272</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F21" t="n">
         <v>19.28114311021272</v>
@@ -5834,49 +5834,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M21" t="n">
-        <v>487.8483949674443</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N21" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R21" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>487.2836868729568</v>
+        <v>793.3509956204218</v>
       </c>
       <c r="V21" t="n">
-        <v>487.2836868729568</v>
+        <v>558.1988873886792</v>
       </c>
       <c r="W21" t="n">
-        <v>487.2836868729568</v>
+        <v>314.750110744579</v>
       </c>
       <c r="X21" t="n">
-        <v>487.2836868729568</v>
+        <v>314.750110744579</v>
       </c>
       <c r="Y21" t="n">
-        <v>487.2836868729568</v>
+        <v>314.750110744579</v>
       </c>
     </row>
     <row r="22">
@@ -5946,7 +5946,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W22" t="n">
         <v>19.28114311021272</v>
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="D23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="E23" t="n">
+        <v>485.167420504237</v>
+      </c>
+      <c r="F23" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="F23" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6019,22 +6019,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T23" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U23" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y23" t="n">
-        <v>506.1786963984129</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="24">
@@ -6044,28 +6044,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="C24" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="D24" t="n">
-        <v>19.28114311021272</v>
+        <v>464.5381141589534</v>
       </c>
       <c r="E24" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F24" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J24" t="n">
         <v>19.28114311021272</v>
@@ -6077,7 +6077,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>257.8852890990952</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
         <v>473.4149733950735</v>
@@ -6095,25 +6095,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>928.2922408909005</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>726.1056462496665</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>497.8820279860555</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>262.7299197543128</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W24" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X24" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="Y24" t="n">
-        <v>19.28114311021272</v>
+        <v>485.4562706347935</v>
       </c>
     </row>
     <row r="25">
@@ -6174,13 +6174,13 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="D26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="E26" t="n">
-        <v>19.28114311021272</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="F26" t="n">
-        <v>19.28114311021272</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J26" t="n">
         <v>19.28114311021272</v>
@@ -6250,28 +6250,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T26" t="n">
-        <v>738.7078125165641</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="U26" t="n">
-        <v>506.1786963984129</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="V26" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="W26" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="X26" t="n">
-        <v>262.7299197543128</v>
+        <v>761.6974622895962</v>
       </c>
       <c r="Y26" t="n">
-        <v>262.7299197543128</v>
+        <v>518.2486856454962</v>
       </c>
     </row>
     <row r="27">
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>344.6327430815143</v>
+        <v>492.48569440222</v>
       </c>
       <c r="C27" t="n">
-        <v>170.1797138003873</v>
+        <v>474.7416984028202</v>
       </c>
       <c r="D27" t="n">
-        <v>21.24530413913604</v>
+        <v>325.807288741569</v>
       </c>
       <c r="E27" t="n">
-        <v>21.24530413913604</v>
+        <v>166.5698337361135</v>
       </c>
       <c r="F27" t="n">
-        <v>21.24530413913604</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G27" t="n">
-        <v>21.24530413913604</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
@@ -6314,10 +6314,10 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O27" t="n">
         <v>712.019119383956</v>
@@ -6329,28 +6329,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S27" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="V27" t="n">
-        <v>964.0571555106362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="W27" t="n">
-        <v>720.6083788665362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="X27" t="n">
-        <v>720.6083788665362</v>
+        <v>660.701031422288</v>
       </c>
       <c r="Y27" t="n">
-        <v>512.8480801015824</v>
+        <v>660.701031422288</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F28" t="n">
         <v>19.28114311021272</v>
@@ -6414,22 +6414,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>343.8760884571613</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>100.4273118130612</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>100.4273118130612</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G29" t="n">
         <v>19.28114311021272</v>
@@ -6484,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>812.6742080953335</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>587.3248651012614</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V29" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W29" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X29" t="n">
-        <v>587.3248651012614</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y29" t="n">
-        <v>587.3248651012614</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="30">
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>521.2549444941228</v>
+        <v>194.4883050441255</v>
       </c>
       <c r="C30" t="n">
-        <v>346.8019152129958</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D30" t="n">
-        <v>197.8675055517446</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E30" t="n">
-        <v>38.63005054628906</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F30" t="n">
-        <v>38.63005054628906</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G30" t="n">
-        <v>38.63005054628906</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H30" t="n">
-        <v>38.63005054628906</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J30" t="n">
         <v>19.28114311021272</v>
@@ -6551,7 +6551,7 @@
         <v>249.2442489785619</v>
       </c>
       <c r="M30" t="n">
-        <v>486.8488635328713</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N30" t="n">
         <v>725.4530095217538</v>
@@ -6566,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y30" t="n">
-        <v>689.4702815141908</v>
+        <v>194.4883050441255</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>114.6452713866835</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="C32" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="D32" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="E32" t="n">
-        <v>19.28114311021272</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="F32" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
         <v>19.28114311021272</v>
@@ -6730,22 +6730,22 @@
         <v>601.5428246748836</v>
       </c>
       <c r="T32" t="n">
-        <v>601.5428246748836</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="U32" t="n">
-        <v>601.5428246748836</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="V32" t="n">
-        <v>601.5428246748836</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="W32" t="n">
-        <v>601.5428246748836</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="X32" t="n">
-        <v>601.5428246748836</v>
+        <v>376.1934816808115</v>
       </c>
       <c r="Y32" t="n">
-        <v>358.0940480307835</v>
+        <v>376.1934816808115</v>
       </c>
     </row>
     <row r="33">
@@ -6755,28 +6755,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>194.4883050441255</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I33" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J33" t="n">
         <v>19.28114311021272</v>
@@ -6785,16 +6785,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L33" t="n">
-        <v>19.28114311021272</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M33" t="n">
-        <v>234.810827406191</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P33" t="n">
         <v>894.6625969973069</v>
@@ -6803,28 +6803,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R33" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S33" t="n">
-        <v>778.3154410346802</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T33" t="n">
-        <v>778.3154410346802</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U33" t="n">
-        <v>778.3154410346802</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="V33" t="n">
-        <v>778.3154410346802</v>
+        <v>470.4902185192667</v>
       </c>
       <c r="W33" t="n">
-        <v>778.3154410346802</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="X33" t="n">
-        <v>570.4639408291474</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y33" t="n">
-        <v>362.7036420641935</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>366.1018663125844</v>
+      </c>
+      <c r="C35" t="n">
+        <v>366.1018663125844</v>
+      </c>
+      <c r="D35" t="n">
+        <v>366.1018663125844</v>
+      </c>
+      <c r="E35" t="n">
+        <v>366.1018663125844</v>
+      </c>
+      <c r="F35" t="n">
         <v>262.7299197543128</v>
-      </c>
-      <c r="C35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="D35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="E35" t="n">
-        <v>19.28114311021272</v>
-      </c>
-      <c r="F35" t="n">
-        <v>19.28114311021272</v>
       </c>
       <c r="G35" t="n">
         <v>19.28114311021272</v>
@@ -6958,31 +6958,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T35" t="n">
-        <v>749.627473042513</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U35" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V35" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W35" t="n">
-        <v>506.1786963984129</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="X35" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="Y35" t="n">
-        <v>262.7299197543128</v>
+        <v>366.1018663125844</v>
       </c>
     </row>
     <row r="36">
@@ -6992,13 +6992,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>19.28114311021272</v>
+        <v>121.9828289416232</v>
       </c>
       <c r="C36" t="n">
-        <v>19.28114311021272</v>
+        <v>121.9828289416232</v>
       </c>
       <c r="D36" t="n">
-        <v>19.28114311021272</v>
+        <v>121.9828289416232</v>
       </c>
       <c r="E36" t="n">
         <v>19.28114311021272</v>
@@ -7022,19 +7022,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L36" t="n">
-        <v>65.60123993063803</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M36" t="n">
-        <v>304.2053859195205</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7046,22 +7046,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V36" t="n">
-        <v>500.6814290152826</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="W36" t="n">
-        <v>257.2326523711826</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="X36" t="n">
-        <v>49.38115216564972</v>
+        <v>290.1981659616912</v>
       </c>
       <c r="Y36" t="n">
-        <v>19.28114311021272</v>
+        <v>290.1981659616912</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L37" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M37" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N37" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S37" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y37" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C38" t="n">
-        <v>274.0360370837871</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D38" t="n">
-        <v>30.58726043968704</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G38" t="n">
         <v>19.28114311021272</v>
@@ -7195,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S38" t="n">
-        <v>742.8341567219593</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X38" t="n">
-        <v>517.4848137278872</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y38" t="n">
-        <v>517.4848137278872</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="39">
@@ -7229,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>862.8876260635219</v>
+        <v>622.424473941237</v>
       </c>
       <c r="C39" t="n">
-        <v>726.0875267598396</v>
+        <v>454.2350688147492</v>
       </c>
       <c r="D39" t="n">
-        <v>577.1531170985884</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E39" t="n">
-        <v>417.9156620931329</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F39" t="n">
-        <v>271.3811041200179</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>132.6502787026334</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K39" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N39" t="n">
         <v>725.4530095217538</v>
@@ -7277,28 +7277,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="X39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="Y39" t="n">
-        <v>862.8876260635219</v>
+        <v>790.6398109613051</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y40" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="41">
@@ -7387,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>396.792197863116</v>
+        <v>604.3859801240053</v>
       </c>
       <c r="C41" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="D41" t="n">
+        <v>604.3859801240053</v>
+      </c>
+      <c r="E41" t="n">
+        <v>431.628992076841</v>
+      </c>
+      <c r="F41" t="n">
         <v>224.0352098159517</v>
-      </c>
-      <c r="D41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="E41" t="n">
-        <v>16.44142755506243</v>
-      </c>
-      <c r="F41" t="n">
-        <v>16.44142755506243</v>
       </c>
       <c r="G41" t="n">
         <v>16.44142755506243</v>
@@ -7414,16 +7414,16 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K41" t="n">
-        <v>16.44142755506243</v>
+        <v>119.4564334659848</v>
       </c>
       <c r="L41" t="n">
-        <v>196.517279139721</v>
+        <v>299.5322850506434</v>
       </c>
       <c r="M41" t="n">
-        <v>399.9799451336186</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N41" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O41" t="n">
         <v>732.4113224610707</v>
@@ -7447,16 +7447,16 @@
         <v>811.9797623848946</v>
       </c>
       <c r="V41" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="W41" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="X41" t="n">
+        <v>811.9797623848946</v>
+      </c>
+      <c r="Y41" t="n">
         <v>604.3859801240053</v>
-      </c>
-      <c r="W41" t="n">
-        <v>396.792197863116</v>
-      </c>
-      <c r="X41" t="n">
-        <v>396.792197863116</v>
-      </c>
-      <c r="Y41" t="n">
-        <v>396.792197863116</v>
       </c>
     </row>
     <row r="42">
@@ -7466,10 +7466,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8288664974407</v>
       </c>
       <c r="C42" t="n">
-        <v>16.44142755506243</v>
+        <v>165.3758372163137</v>
       </c>
       <c r="D42" t="n">
         <v>16.44142755506243</v>
@@ -7499,16 +7499,16 @@
         <v>345.2616536067974</v>
       </c>
       <c r="M42" t="n">
-        <v>345.2616536067974</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="N42" t="n">
-        <v>366.5706756325438</v>
+        <v>435.9652341458732</v>
       </c>
       <c r="O42" t="n">
-        <v>570.0333416264414</v>
+        <v>639.4279001397708</v>
       </c>
       <c r="P42" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q42" t="n">
         <v>822.0713777531216</v>
@@ -7520,22 +7520,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T42" t="n">
-        <v>822.0713777531216</v>
+        <v>755.0164310192192</v>
       </c>
       <c r="U42" t="n">
-        <v>639.2227743377304</v>
+        <v>755.0164310192192</v>
       </c>
       <c r="V42" t="n">
-        <v>431.628992076841</v>
+        <v>755.0164310192192</v>
       </c>
       <c r="W42" t="n">
-        <v>224.0352098159517</v>
+        <v>755.0164310192192</v>
       </c>
       <c r="X42" t="n">
-        <v>224.0352098159517</v>
+        <v>547.42264875833</v>
       </c>
       <c r="Y42" t="n">
-        <v>16.44142755506243</v>
+        <v>339.8288664974407</v>
       </c>
     </row>
     <row r="43">
@@ -7590,19 +7590,19 @@
         <v>150.9737180453332</v>
       </c>
       <c r="Q43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="R43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="S43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="T43" t="n">
-        <v>63.94135112442973</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="U43" t="n">
-        <v>63.94135112442973</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="V43" t="n">
         <v>16.44142755506243</v>
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>37.81546818692397</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="C44" t="n">
-        <v>37.81546818692397</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="D44" t="n">
-        <v>37.81546818692397</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="E44" t="n">
-        <v>37.81546818692397</v>
+        <v>431.628992076841</v>
       </c>
       <c r="F44" t="n">
-        <v>16.44142755506243</v>
+        <v>224.0352098159517</v>
       </c>
       <c r="G44" t="n">
         <v>16.44142755506243</v>
@@ -7657,13 +7657,13 @@
         <v>299.5322850506434</v>
       </c>
       <c r="M44" t="n">
-        <v>379.753706324525</v>
+        <v>502.994951044541</v>
       </c>
       <c r="N44" t="n">
-        <v>583.2163723184226</v>
+        <v>706.4576170384386</v>
       </c>
       <c r="O44" t="n">
-        <v>732.4113224610707</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P44" t="n">
         <v>822.0713777531216</v>
@@ -7672,28 +7672,28 @@
         <v>811.9797623848946</v>
       </c>
       <c r="R44" t="n">
-        <v>660.5968149695918</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="S44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="T44" t="n">
-        <v>453.0030327087026</v>
+        <v>811.9797623848946</v>
       </c>
       <c r="U44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="V44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="W44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="X44" t="n">
-        <v>453.0030327087026</v>
+        <v>639.2227743377304</v>
       </c>
       <c r="Y44" t="n">
-        <v>245.4092504478133</v>
+        <v>639.2227743377304</v>
       </c>
     </row>
     <row r="45">
@@ -7703,13 +7703,13 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="C45" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="D45" t="n">
-        <v>24.83700168932677</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="E45" t="n">
         <v>16.44142755506243</v>
@@ -7730,22 +7730,22 @@
         <v>16.44142755506243</v>
       </c>
       <c r="K45" t="n">
-        <v>141.7989876128999</v>
+        <v>16.44142755506243</v>
       </c>
       <c r="L45" t="n">
-        <v>141.7989876128999</v>
+        <v>219.90409354896</v>
       </c>
       <c r="M45" t="n">
-        <v>163.1080096386462</v>
+        <v>423.3667595428576</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5706756325438</v>
+        <v>626.8294255367553</v>
       </c>
       <c r="O45" t="n">
-        <v>570.0333416264414</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="P45" t="n">
-        <v>752.6768192397923</v>
+        <v>822.0713777531216</v>
       </c>
       <c r="Q45" t="n">
         <v>822.0713777531216</v>
@@ -7757,22 +7757,22 @@
         <v>822.0713777531216</v>
       </c>
       <c r="T45" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="U45" t="n">
-        <v>822.0713777531216</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="V45" t="n">
-        <v>614.4775954922324</v>
+        <v>619.8847831118876</v>
       </c>
       <c r="W45" t="n">
-        <v>406.8838132313431</v>
+        <v>412.2910008509983</v>
       </c>
       <c r="X45" t="n">
-        <v>406.8838132313431</v>
+        <v>204.697218590109</v>
       </c>
       <c r="Y45" t="n">
-        <v>199.2900309704538</v>
+        <v>16.44142755506243</v>
       </c>
     </row>
     <row r="46">
@@ -7839,10 +7839,10 @@
         <v>150.9737180453332</v>
       </c>
       <c r="U46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="V46" t="n">
-        <v>16.44142755506243</v>
+        <v>150.9737180453332</v>
       </c>
       <c r="W46" t="n">
         <v>16.44142755506243</v>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -7993,10 +7993,10 @@
         <v>434.9309080348713</v>
       </c>
       <c r="O2" t="n">
-        <v>346.8797879011645</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>231.2329957552695</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8066,7 +8066,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>290.282096632709</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N3" t="n">
         <v>336.8595565216137</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8221,10 +8221,10 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>383.7408211888696</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>435.8640776655532</v>
+        <v>311.3779718877592</v>
       </c>
       <c r="N5" t="n">
         <v>434.9309080348713</v>
@@ -8233,7 +8233,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>344.0722242181546</v>
@@ -8306,16 +8306,16 @@
         <v>347.6518783602987</v>
       </c>
       <c r="N6" t="n">
-        <v>144.0674440055713</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O6" t="n">
-        <v>348.1140888827248</v>
+        <v>143.091025904242</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8455,22 +8455,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L8" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
-        <v>401.9436843039723</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N8" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O8" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8534,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>344.0722242181546</v>
+        <v>151.2801117021122</v>
       </c>
       <c r="M9" t="n">
         <v>347.6518783602987</v>
       </c>
       <c r="N9" t="n">
-        <v>222.9614904056321</v>
+        <v>336.8595565216137</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>348.1140888827248</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>220.0898510449805</v>
       </c>
       <c r="L11" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N11" t="n">
         <v>434.9309080348713</v>
@@ -8707,7 +8707,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>301.368163919873</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8774,10 +8774,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M12" t="n">
-        <v>347.6518783602987</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
         <v>336.8595565216137</v>
@@ -8786,10 +8786,10 @@
         <v>348.1140888827248</v>
       </c>
       <c r="P12" t="n">
-        <v>261.0929869123474</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>152.7075060082595</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8938,13 +8938,13 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N14" t="n">
-        <v>434.9309080348713</v>
+        <v>414.5003637832617</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>301.368163919873</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9011,13 +9011,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M15" t="n">
-        <v>233.7538122443171</v>
+        <v>163.6582985944894</v>
       </c>
       <c r="N15" t="n">
-        <v>336.8595565216137</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>348.1140888827248</v>
@@ -9026,7 +9026,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9248,7 +9248,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>383.1483227996774</v>
@@ -9257,13 +9257,13 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>360.302996258564</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>371.3463732493024</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9725,10 +9725,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
-        <v>349.0484638974528</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O24" t="n">
         <v>383.6105333221035</v>
@@ -9962,13 +9962,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>360.302996258564</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10199,10 +10199,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10433,10 +10433,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>359.8407857361378</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N33" t="n">
         <v>372.3560009609923</v>
@@ -10445,7 +10445,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10670,10 +10670,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>185.3423563661624</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N36" t="n">
         <v>372.3560009609923</v>
@@ -10682,10 +10682,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O39" t="n">
         <v>383.6105333221035</v>
@@ -11062,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11071,10 +11071,10 @@
         <v>435.8640776655532</v>
       </c>
       <c r="N41" t="n">
-        <v>414.5003637832617</v>
+        <v>434.9309080348713</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>256.3140754849514</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11147,10 +11147,10 @@
         <v>344.0722242181546</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>233.7538122443171</v>
       </c>
       <c r="N42" t="n">
-        <v>152.8659767558044</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
         <v>348.1140888827248</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11305,16 +11305,16 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>311.3779718877592</v>
+        <v>435.8640776655532</v>
       </c>
       <c r="N44" t="n">
         <v>434.9309080348713</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>346.8797879011645</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,25 +11378,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>344.0722242181546</v>
       </c>
       <c r="M45" t="n">
-        <v>163.6582985944894</v>
+        <v>347.6518783602987</v>
       </c>
       <c r="N45" t="n">
         <v>336.8595565216137</v>
       </c>
       <c r="O45" t="n">
-        <v>348.1140888827248</v>
+        <v>339.8103375922893</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22594,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>3.502225147964936</v>
@@ -22606,7 +22606,7 @@
         <v>45.82780846955609</v>
       </c>
       <c r="V2" t="n">
-        <v>156.7228403034423</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -22625,13 +22625,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>27.59812154763144</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
@@ -22673,19 +22673,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>19.14461131358425</v>
       </c>
       <c r="U3" t="n">
         <v>20.42353764269441</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W3" t="n">
         <v>46.1771387226392</v>
@@ -22746,13 +22746,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -22761,7 +22761,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>177.2159972252002</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -22843,10 +22843,10 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>146.7321410888975</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>143.7231242791326</v>
+        <v>168.2208513361757</v>
       </c>
       <c r="X5" t="n">
         <v>164.2132562401886</v>
@@ -22862,10 +22862,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>163.3715527109161</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -22886,7 +22886,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22910,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>67.65324031232404</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0.1648513390239543</v>
       </c>
     </row>
     <row r="7">
@@ -22983,13 +22983,13 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
         <v>224.0165980369723</v>
@@ -23007,7 +23007,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -23023,7 +23023,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -23038,7 +23038,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>308.3238026756795</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
@@ -23065,7 +23065,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -23080,16 +23080,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>306.591958244592</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X8" t="n">
-        <v>164.2132562401886</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="9">
@@ -23099,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>52.86155497130842</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -23147,22 +23147,22 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>39.56814895627872</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>27.28274271114486</v>
       </c>
       <c r="W9" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
         <v>0.2551407651970692</v>
@@ -23220,13 +23220,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>132.9899077786024</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -23241,7 +23241,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -23260,7 +23260,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>159.7550473327271</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>149.1651971824026</v>
@@ -23272,13 +23272,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>209.7848930768546</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I11" t="n">
-        <v>29.45577218916847</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
         <v>11.94928935461252</v>
@@ -23302,7 +23302,7 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
         <v>149.8691179411497</v>
@@ -23311,16 +23311,16 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>52.06643139743881</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3456529078365</v>
+        <v>45.82780846955609</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>143.7231242791326</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23339,7 +23339,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>147.4450655646388</v>
@@ -23351,10 +23351,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>123.6787830268302</v>
       </c>
       <c r="H12" t="n">
-        <v>31.3731610079022</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
         <v>89.39663285141508</v>
@@ -23384,25 +23384,25 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>20.42353764269441</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2551407651970692</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
         <v>0.1648513390239543</v>
@@ -23436,13 +23436,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>137.8921792844459</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U13" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>149.1651971824026</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -23509,7 +23509,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>244.2733193484424</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23542,16 +23542,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>187.8597693607025</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
-        <v>17.57800512585095</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>45.82780846955609</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23560,10 +23560,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>164.2132562401886</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="15">
@@ -23576,28 +23576,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>98.57071010011607</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23627,19 +23627,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9413820809748</v>
+        <v>20.42353764269441</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>46.1771387226392</v>
       </c>
       <c r="X15" t="n">
-        <v>50.63581293356387</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23709,10 +23709,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U16" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>294.9288839697323</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
@@ -23776,19 +23776,19 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T17" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23810,19 +23810,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>160.2814645775439</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>59.4893961654308</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -23831,7 +23831,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -23870,10 +23870,10 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23940,13 +23940,13 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>329.5048015845142</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24016,19 +24016,19 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>240.1525967516569</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24047,19 +24047,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>23.3642298777052</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -24095,22 +24095,22 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>56.94228378966258</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -24186,10 +24186,10 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24214,13 +24214,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>165.8617568640524</v>
+        <v>186.6629199992865</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24259,10 +24259,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>49.05096647893927</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -24290,16 +24290,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>126.7360906535571</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24308,7 +24308,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -24335,13 +24335,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>136.2759056302995</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S25" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T25" t="n">
         <v>227.9455894282815</v>
@@ -24423,7 +24423,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24448,16 +24448,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G26" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H26" t="n">
         <v>339.4748021157671</v>
@@ -24466,7 +24466,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24490,19 +24490,19 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R26" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>172.6288712164514</v>
       </c>
       <c r="U26" t="n">
-        <v>21.14182795086677</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -24511,7 +24511,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24524,28 +24524,28 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>155.14194294891</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H27" t="n">
-        <v>110.2909248178624</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>225.9413820809748</v>
@@ -24584,13 +24584,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24612,7 +24612,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>12.23408043756322</v>
       </c>
       <c r="G28" t="n">
         <v>167.9909793584588</v>
@@ -24654,7 +24654,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
         <v>286.3190293564909</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24688,13 +24688,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>334.968030499315</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
         <v>339.4748021157671</v>
@@ -24724,19 +24724,19 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S29" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U29" t="n">
-        <v>251.3456529078365</v>
+        <v>49.05096647893927</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="30">
@@ -24758,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
         <v>145.0692123933839</v>
@@ -24779,10 +24779,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I30" t="n">
-        <v>70.24121448969952</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -24806,10 +24806,10 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
         <v>200.1647286948216</v>
@@ -24818,16 +24818,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>205.6826957773044</v>
+        <v>123.3973950460205</v>
       </c>
     </row>
     <row r="31">
@@ -24843,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24894,7 +24894,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,10 +24916,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>270.8624047773015</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
         <v>354.683041620683</v>
@@ -24928,10 +24928,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>294.5471194344777</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>251.3456529078365</v>
@@ -24985,7 +24985,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,10 +24995,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
@@ -25019,7 +25019,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -25043,25 +25043,25 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>87.95670792528459</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9413820809748</v>
+        <v>109.1580142581785</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -25086,7 +25086,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>12.23408043756325</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.9909793584588</v>
@@ -25134,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25156,7 +25156,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25165,10 +25165,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>304.5378186490225</v>
       </c>
       <c r="G35" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H35" t="n">
         <v>339.4748021157671</v>
@@ -25198,19 +25198,19 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>10.81046392068936</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25232,7 +25232,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
@@ -25241,7 +25241,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>55.97041148230457</v>
       </c>
       <c r="F36" t="n">
         <v>145.0692123933839</v>
@@ -25286,22 +25286,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25365,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>94.7586218429135</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25374,7 +25374,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -25393,19 +25393,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>370.7373139160822</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G38" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H38" t="n">
         <v>339.4748021157671</v>
@@ -25435,16 +25435,16 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
@@ -25459,7 +25459,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="39">
@@ -25469,16 +25469,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>37.27640067767032</v>
+        <v>6.200987913092803</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -25487,13 +25487,13 @@
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>200.1647286948216</v>
@@ -25566,7 +25566,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H40" t="n">
-        <v>29.04020492207158</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I40" t="n">
         <v>155.4504749272583</v>
@@ -25602,7 +25602,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U40" t="n">
         <v>286.3190293564909</v>
@@ -25630,19 +25630,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>194.2434736043149</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>149.1651971824026</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>210.9009519055692</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G41" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H41" t="n">
         <v>339.4748021157671</v>
@@ -25687,16 +25687,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
-        <v>122.2344140318545</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>143.7231242791326</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>180.7200942177732</v>
       </c>
     </row>
     <row r="42">
@@ -25709,10 +25709,10 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>157.6450804554009</v>
@@ -25760,19 +25760,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>200.1647286948216</v>
+        <v>133.7803314282583</v>
       </c>
       <c r="U42" t="n">
-        <v>44.92126469973746</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
-        <v>46.1771387226392</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y42" t="n">
         <v>0.1648513390239543</v>
@@ -25830,7 +25830,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R43" t="n">
         <v>177.2933913771695</v>
@@ -25842,10 +25842,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>205.1127189901544</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>177.2159972252002</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -25873,13 +25873,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>176.4125256339814</v>
       </c>
       <c r="F44" t="n">
-        <v>385.7157455161685</v>
+        <v>201.358201303431</v>
       </c>
       <c r="G44" t="n">
-        <v>415.302737515135</v>
+        <v>209.7848930768546</v>
       </c>
       <c r="H44" t="n">
         <v>339.4748021157671</v>
@@ -25912,16 +25912,16 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
-        <v>3.502225147964936</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T44" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>251.3456529078365</v>
+        <v>80.31623474114394</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>180.7200942177732</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,13 +25946,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>149.3334620624792</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -25997,22 +25997,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T45" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
-        <v>27.28274271114486</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>46.1771387226392</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0.2551407651970692</v>
       </c>
       <c r="Y45" t="n">
-        <v>0.1648513390239543</v>
+        <v>19.30946265260823</v>
       </c>
     </row>
     <row r="46">
@@ -26079,13 +26079,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>449915.3642318327</v>
+        <v>449915.3642318326</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>449915.3642318327</v>
+        <v>449915.3642318328</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>449915.3642318327</v>
+        <v>449915.3642318326</v>
       </c>
     </row>
     <row r="5">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>473915.1863847286</v>
+        <v>473915.1863847285</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>473915.1863847285</v>
+        <v>473915.1863847286</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>473915.1863847286</v>
+        <v>473915.1863847285</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>473915.1863847286</v>
+        <v>473915.1863847285</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>449915.3642318326</v>
+        <v>449915.3642318327</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>449915.3642318326</v>
+        <v>449915.3642318327</v>
       </c>
     </row>
   </sheetData>
@@ -26328,7 +26328,7 @@
         <v>149869.759743185</v>
       </c>
       <c r="G2" t="n">
-        <v>157852.6389047658</v>
+        <v>157852.6389047657</v>
       </c>
       <c r="H2" t="n">
         <v>157852.6389047658</v>
@@ -26340,13 +26340,13 @@
         <v>157852.6389047658</v>
       </c>
       <c r="K2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="L2" t="n">
         <v>157852.6389047657</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>157852.6389047658</v>
-      </c>
-      <c r="M2" t="n">
-        <v>157852.6389047657</v>
       </c>
       <c r="N2" t="n">
         <v>157852.6389047657</v>
@@ -26426,16 +26426,16 @@
         <v>47787.18911168983</v>
       </c>
       <c r="E4" t="n">
-        <v>47787.18911168982</v>
+        <v>47787.18911168983</v>
       </c>
       <c r="F4" t="n">
         <v>47787.18911168983</v>
       </c>
       <c r="G4" t="n">
+        <v>50385.00392753458</v>
+      </c>
+      <c r="H4" t="n">
         <v>50385.00392753457</v>
-      </c>
-      <c r="H4" t="n">
-        <v>50385.00392753458</v>
       </c>
       <c r="I4" t="n">
         <v>50385.00392753457</v>
@@ -26450,10 +26450,10 @@
         <v>50385.00392753457</v>
       </c>
       <c r="M4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="N4" t="n">
-        <v>50385.00392753458</v>
+        <v>50385.00392753457</v>
       </c>
       <c r="O4" t="n">
         <v>47787.18911168983</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12914.27089204214</v>
+        <v>-25552.43304690266</v>
       </c>
       <c r="C6" t="n">
-        <v>55959.48568964776</v>
+        <v>43321.3235347872</v>
       </c>
       <c r="D6" t="n">
-        <v>55959.48568964771</v>
+        <v>43321.3235347872</v>
       </c>
       <c r="E6" t="n">
-        <v>89587.08568964772</v>
+        <v>76948.9235347872</v>
       </c>
       <c r="F6" t="n">
-        <v>89587.08568964771</v>
+        <v>76948.92353478723</v>
       </c>
       <c r="G6" t="n">
-        <v>83084.92323930244</v>
+        <v>70866.91261926193</v>
       </c>
       <c r="H6" t="n">
-        <v>92813.96621346952</v>
+        <v>80595.95559342907</v>
       </c>
       <c r="I6" t="n">
-        <v>92813.96621346957</v>
+        <v>80595.95559342907</v>
       </c>
       <c r="J6" t="n">
-        <v>39041.4553232601</v>
+        <v>26823.44470321966</v>
       </c>
       <c r="K6" t="n">
-        <v>92813.9662134695</v>
+        <v>80595.95559342908</v>
       </c>
       <c r="L6" t="n">
-        <v>92813.96621346954</v>
+        <v>80595.95559342904</v>
       </c>
       <c r="M6" t="n">
-        <v>92813.9662134695</v>
+        <v>80595.9555934291</v>
       </c>
       <c r="N6" t="n">
-        <v>92813.9662134695</v>
+        <v>80595.95559342904</v>
       </c>
       <c r="O6" t="n">
-        <v>89587.08568964773</v>
+        <v>76948.92353478717</v>
       </c>
       <c r="P6" t="n">
-        <v>89587.08568964768</v>
+        <v>76948.92353478717</v>
       </c>
     </row>
   </sheetData>
@@ -34701,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>181.8947995804632</v>
@@ -34713,10 +34713,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="O2" t="n">
-        <v>116.7815764794778</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34786,7 +34786,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>148.1480627106907</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N3" t="n">
         <v>205.5178444382804</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34941,10 +34941,10 @@
         <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>147.9744062188824</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>205.5178444382804</v>
+        <v>81.03173866048648</v>
       </c>
       <c r="N5" t="n">
         <v>205.5178444382804</v>
@@ -34953,7 +34953,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
         <v>205.5178444382804</v>
@@ -35026,16 +35026,16 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N6" t="n">
-        <v>12.72573192223801</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O6" t="n">
-        <v>205.5178444382804</v>
+        <v>0.494781459797586</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,22 +35175,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>171.5974510766996</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N8" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O8" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35254,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>205.5178444382804</v>
+        <v>12.72573192223801</v>
       </c>
       <c r="M9" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="N9" t="n">
-        <v>91.61977832229879</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35412,13 +35412,13 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>104.0555615261842</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N11" t="n">
         <v>205.5178444382804</v>
@@ -35427,7 +35427,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>90.5657124162131</v>
+        <v>70.1351681646035</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35494,10 +35494,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M12" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>205.5178444382804</v>
@@ -35506,10 +35506,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="P12" t="n">
-        <v>127.1185794980172</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>12.72573192223796</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,13 +35658,13 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N14" t="n">
-        <v>205.5178444382804</v>
+        <v>185.0873001866707</v>
       </c>
       <c r="O14" t="n">
         <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>70.1351681646035</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35731,13 +35731,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M15" t="n">
-        <v>91.61977832229879</v>
+        <v>21.52426467247106</v>
       </c>
       <c r="N15" t="n">
-        <v>205.5178444382804</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>205.5178444382804</v>
@@ -35746,7 +35746,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153932</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35968,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
         <v>241.0142888776591</v>
@@ -35977,13 +35977,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>217.7067518141195</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
         <v>232.285965523585</v>
@@ -36211,16 +36211,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36445,10 +36445,10 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
+        <v>217.7067518141195</v>
+      </c>
+      <c r="N24" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="N24" t="n">
-        <v>217.7067518141195</v>
       </c>
       <c r="O24" t="n">
         <v>241.0142888776591</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36919,10 +36919,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="N30" t="n">
         <v>240.0046611659691</v>
-      </c>
-      <c r="N30" t="n">
-        <v>241.0142888776591</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37153,10 +37153,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>217.7067518141195</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N33" t="n">
         <v>241.0142888776591</v>
@@ -37165,7 +37165,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>70.09551364982758</v>
@@ -37390,10 +37390,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>46.78797658628819</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N36" t="n">
         <v>241.0142888776591</v>
@@ -37402,10 +37402,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,16 +37624,16 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O39" t="n">
         <v>241.0142888776591</v>
@@ -37782,7 +37782,7 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
         <v>181.8947995804632</v>
@@ -37791,10 +37791,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="N41" t="n">
-        <v>185.0873001866707</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="O41" t="n">
-        <v>150.7019698410586</v>
+        <v>26.21586406326473</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37867,10 +37867,10 @@
         <v>205.5178444382804</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>91.61977832229879</v>
       </c>
       <c r="N42" t="n">
-        <v>21.52426467247106</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>205.5178444382804</v>
@@ -37879,7 +37879,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q42" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38025,16 +38025,16 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>81.03173866048648</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N44" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O44" t="n">
-        <v>150.7019698410586</v>
+        <v>116.7815764794778</v>
       </c>
       <c r="P44" t="n">
-        <v>90.5657124162131</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,25 +38098,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="M45" t="n">
-        <v>21.52426467247106</v>
+        <v>205.5178444382804</v>
       </c>
       <c r="N45" t="n">
         <v>205.5178444382804</v>
       </c>
       <c r="O45" t="n">
-        <v>205.5178444382804</v>
+        <v>197.2140931478448</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
